--- a/4月/4月份运费表(4.17).xlsx
+++ b/4月/4月份运费表(4.17).xlsx
@@ -951,7 +951,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H152" sqref="H152"/>
+      <selection pane="bottomLeft" activeCell="H158" sqref="H158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>

--- a/4月/4月份运费表(4.17).xlsx
+++ b/4月/4月份运费表(4.17).xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'4月运费'!$A$1:$I$132</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="autoNoTable"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="112">
   <si>
     <t>日期</t>
   </si>
@@ -437,6 +437,10 @@
   <si>
     <t>朱慧</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷琳</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -947,11 +951,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:J152"/>
+  <dimension ref="A1:J153"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H158" sqref="H158"/>
+      <selection pane="bottomLeft" activeCell="G153" sqref="G153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -4582,6 +4586,25 @@
         <v>100</v>
       </c>
     </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A153" s="6">
+        <v>43572</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D153" s="2">
+        <v>44</v>
+      </c>
+      <c r="E153" s="12">
+        <v>7</v>
+      </c>
+      <c r="F153" s="24"/>
+      <c r="H153" s="24"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:I132">
     <filterColumn colId="0">

--- a/4月/4月份运费表(4.17).xlsx
+++ b/4月/4月份运费表(4.17).xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="112">
   <si>
     <t>日期</t>
   </si>
@@ -951,11 +951,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:J153"/>
+  <dimension ref="A1:J154"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G153" sqref="G153"/>
+      <selection pane="bottomLeft" activeCell="G155" sqref="G155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="F126" s="24">
-        <f t="shared" ref="F126:F149" si="3">D126*E126</f>
+        <f t="shared" ref="F126:F154" si="3">D126*E126</f>
         <v>0</v>
       </c>
       <c r="G126" s="2" t="s">
@@ -4529,6 +4529,7 @@
         <v>0</v>
       </c>
       <c r="F150" s="24">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G150" s="2" t="s">
@@ -4555,7 +4556,7 @@
         <v>13</v>
       </c>
       <c r="F151" s="24">
-        <f>D151*E151</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="H151" s="24"/>
@@ -4577,6 +4578,7 @@
         <v>0</v>
       </c>
       <c r="F152" s="24">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G152" s="2" t="s">
@@ -4602,8 +4604,33 @@
       <c r="E153" s="12">
         <v>7</v>
       </c>
-      <c r="F153" s="24"/>
+      <c r="F153" s="24">
+        <f t="shared" si="3"/>
+        <v>308</v>
+      </c>
       <c r="H153" s="24"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A154" s="6">
+        <v>43572</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D154" s="2">
+        <v>2</v>
+      </c>
+      <c r="E154" s="12">
+        <v>10</v>
+      </c>
+      <c r="F154" s="24">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="H154" s="24"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I132">

--- a/4月/4月份运费表(4.17).xlsx
+++ b/4月/4月份运费表(4.17).xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\Uoolatex\4月\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785"/>
   </bookViews>
@@ -17,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'4月运费'!$A$1:$I$132</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -28,7 +23,7 @@
     <author>xbany</author>
   </authors>
   <commentList>
-    <comment ref="B86" authorId="0" shapeId="0">
+    <comment ref="B86" authorId="0">
       <text>
         <r>
           <rPr>
@@ -44,7 +39,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B111" authorId="1" shapeId="0">
+    <comment ref="B111" authorId="1">
       <text>
         <r>
           <rPr>
@@ -64,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="113">
   <si>
     <t>日期</t>
   </si>
@@ -440,14 +435,18 @@
   </si>
   <si>
     <t>雷琳</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>许燕莎</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -949,16 +948,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:J154"/>
+  <dimension ref="A1:J155"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G155" sqref="G155"/>
+      <selection pane="bottomLeft" activeCell="G170" sqref="G170"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="12.375" style="1" customWidth="1"/>
@@ -972,7 +971,7 @@
     <col min="10" max="10" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -1001,7 +1000,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" hidden="1">
       <c r="A2" s="6">
         <v>43556</v>
       </c>
@@ -1025,7 +1024,7 @@
       <c r="H2" s="24"/>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" hidden="1">
       <c r="A3" s="6">
         <v>43556</v>
       </c>
@@ -1049,7 +1048,7 @@
       <c r="H3" s="24"/>
       <c r="J3" s="7"/>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" hidden="1">
       <c r="A4" s="6">
         <v>43556</v>
       </c>
@@ -1073,7 +1072,7 @@
       <c r="H4" s="24"/>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" hidden="1">
       <c r="A5" s="6">
         <v>43556</v>
       </c>
@@ -1100,7 +1099,7 @@
       </c>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" hidden="1">
       <c r="A6" s="6">
         <v>43556</v>
       </c>
@@ -1127,7 +1126,7 @@
       </c>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" hidden="1">
       <c r="A7" s="6">
         <v>43556</v>
       </c>
@@ -1154,7 +1153,7 @@
       </c>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" hidden="1">
       <c r="A8" s="6">
         <v>43556</v>
       </c>
@@ -1178,7 +1177,7 @@
       <c r="H8" s="24"/>
       <c r="J8" s="7"/>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" hidden="1">
       <c r="A9" s="6">
         <v>43556</v>
       </c>
@@ -1202,7 +1201,7 @@
       <c r="H9" s="24"/>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" hidden="1">
       <c r="A10" s="6">
         <v>43556</v>
       </c>
@@ -1226,7 +1225,7 @@
       <c r="H10" s="24"/>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" hidden="1">
       <c r="A11" s="6">
         <v>43556</v>
       </c>
@@ -1250,7 +1249,7 @@
       <c r="H11" s="24"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" hidden="1">
       <c r="A12" s="6">
         <v>43556</v>
       </c>
@@ -1274,7 +1273,7 @@
       <c r="H12" s="24"/>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" hidden="1">
       <c r="A13" s="6">
         <v>43556</v>
       </c>
@@ -1299,7 +1298,7 @@
       <c r="I13"/>
       <c r="J13" s="7"/>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" hidden="1">
       <c r="A14" s="6">
         <v>43556</v>
       </c>
@@ -1324,7 +1323,7 @@
       <c r="I14"/>
       <c r="J14" s="7"/>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" hidden="1">
       <c r="A15" s="6">
         <v>43556</v>
       </c>
@@ -1349,7 +1348,7 @@
       <c r="I15"/>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" hidden="1">
       <c r="A16" s="6">
         <v>43556</v>
       </c>
@@ -1374,7 +1373,7 @@
       <c r="I16"/>
       <c r="J16" s="7"/>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" hidden="1">
       <c r="A17" s="6">
         <v>43557</v>
       </c>
@@ -1399,7 +1398,7 @@
       <c r="I17"/>
       <c r="J17" s="7"/>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" hidden="1">
       <c r="A18" s="6">
         <v>43557</v>
       </c>
@@ -1424,7 +1423,7 @@
       <c r="I18"/>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" hidden="1">
       <c r="A19" s="6">
         <v>43557</v>
       </c>
@@ -1449,7 +1448,7 @@
       <c r="I19"/>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" hidden="1">
       <c r="A20" s="6">
         <v>43557</v>
       </c>
@@ -1474,7 +1473,7 @@
       <c r="I20"/>
       <c r="J20" s="10"/>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" hidden="1">
       <c r="A21" s="6">
         <v>43557</v>
       </c>
@@ -1498,7 +1497,7 @@
       <c r="H21" s="24"/>
       <c r="J21" s="10"/>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" hidden="1">
       <c r="A22" s="6">
         <v>43557</v>
       </c>
@@ -1522,7 +1521,7 @@
       <c r="H22" s="24"/>
       <c r="J22" s="7"/>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" hidden="1">
       <c r="A23" s="6">
         <v>43557</v>
       </c>
@@ -1546,7 +1545,7 @@
       <c r="H23" s="24"/>
       <c r="J23" s="7"/>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" hidden="1">
       <c r="A24" s="6">
         <v>43557</v>
       </c>
@@ -1570,7 +1569,7 @@
       <c r="H24" s="24"/>
       <c r="J24" s="7"/>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" hidden="1">
       <c r="A25" s="6">
         <v>43557</v>
       </c>
@@ -1594,7 +1593,7 @@
       <c r="H25" s="24"/>
       <c r="J25" s="7"/>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" hidden="1">
       <c r="A26" s="6">
         <v>43557</v>
       </c>
@@ -1618,7 +1617,7 @@
       <c r="H26" s="24"/>
       <c r="J26" s="7"/>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" hidden="1">
       <c r="A27" s="6">
         <v>43557</v>
       </c>
@@ -1642,7 +1641,7 @@
       <c r="H27" s="24"/>
       <c r="J27" s="7"/>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" hidden="1">
       <c r="A28" s="6">
         <v>43557</v>
       </c>
@@ -1666,7 +1665,7 @@
       <c r="H28" s="24"/>
       <c r="J28" s="7"/>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" hidden="1">
       <c r="A29" s="6">
         <v>43557</v>
       </c>
@@ -1690,7 +1689,7 @@
       <c r="H29" s="24"/>
       <c r="J29" s="7"/>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" hidden="1">
       <c r="A30" s="6">
         <v>43557</v>
       </c>
@@ -1714,7 +1713,7 @@
       <c r="H30" s="24"/>
       <c r="J30" s="7"/>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" hidden="1">
       <c r="A31" s="6">
         <v>43558</v>
       </c>
@@ -1738,7 +1737,7 @@
       <c r="H31" s="24"/>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" hidden="1">
       <c r="A32" s="6">
         <v>43558</v>
       </c>
@@ -1762,7 +1761,7 @@
       <c r="H32" s="24"/>
       <c r="J32" s="7"/>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" hidden="1">
       <c r="A33" s="6">
         <v>43558</v>
       </c>
@@ -1786,7 +1785,7 @@
       <c r="H33" s="24"/>
       <c r="J33" s="7"/>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" hidden="1">
       <c r="A34" s="6">
         <v>43558</v>
       </c>
@@ -1810,7 +1809,7 @@
       <c r="H34" s="24"/>
       <c r="J34" s="7"/>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" hidden="1">
       <c r="A35" s="6">
         <v>43558</v>
       </c>
@@ -1834,7 +1833,7 @@
       <c r="H35" s="24"/>
       <c r="J35" s="7"/>
     </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" hidden="1">
       <c r="A36" s="6">
         <v>43558</v>
       </c>
@@ -1858,7 +1857,7 @@
       <c r="H36" s="24"/>
       <c r="J36" s="10"/>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" hidden="1">
       <c r="A37" s="6">
         <v>43558</v>
       </c>
@@ -1882,7 +1881,7 @@
       <c r="H37" s="24"/>
       <c r="J37" s="7"/>
     </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" hidden="1">
       <c r="A38" s="6">
         <v>43558</v>
       </c>
@@ -1906,7 +1905,7 @@
       <c r="H38" s="24"/>
       <c r="J38" s="7"/>
     </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" hidden="1">
       <c r="A39" s="6">
         <v>43558</v>
       </c>
@@ -1930,7 +1929,7 @@
       <c r="H39" s="24"/>
       <c r="J39" s="7"/>
     </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" hidden="1">
       <c r="A40" s="6">
         <v>43558</v>
       </c>
@@ -1954,7 +1953,7 @@
       <c r="H40" s="24"/>
       <c r="J40" s="7"/>
     </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" hidden="1">
       <c r="A41" s="6">
         <v>43558</v>
       </c>
@@ -1978,7 +1977,7 @@
       <c r="H41" s="24"/>
       <c r="J41" s="7"/>
     </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" hidden="1">
       <c r="A42" s="6">
         <v>43558</v>
       </c>
@@ -2002,7 +2001,7 @@
       <c r="H42" s="24"/>
       <c r="J42" s="10"/>
     </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" hidden="1">
       <c r="A43" s="6">
         <v>43558</v>
       </c>
@@ -2026,7 +2025,7 @@
       <c r="H43" s="24"/>
       <c r="J43" s="7"/>
     </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" hidden="1">
       <c r="A44" s="6">
         <v>43558</v>
       </c>
@@ -2050,7 +2049,7 @@
       <c r="H44" s="24"/>
       <c r="J44" s="7"/>
     </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" hidden="1">
       <c r="A45" s="6">
         <v>43558</v>
       </c>
@@ -2074,7 +2073,7 @@
       <c r="H45" s="24"/>
       <c r="J45" s="7"/>
     </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" hidden="1">
       <c r="A46" s="6">
         <v>43558</v>
       </c>
@@ -2098,7 +2097,7 @@
       <c r="H46" s="24"/>
       <c r="J46" s="7"/>
     </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" hidden="1">
       <c r="A47" s="6">
         <v>43559</v>
       </c>
@@ -2122,7 +2121,7 @@
       <c r="H47" s="24"/>
       <c r="J47" s="7"/>
     </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" hidden="1">
       <c r="A48" s="6">
         <v>43559</v>
       </c>
@@ -2146,7 +2145,7 @@
       <c r="H48" s="24"/>
       <c r="J48" s="7"/>
     </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" hidden="1">
       <c r="A49" s="6">
         <v>43559</v>
       </c>
@@ -2170,7 +2169,7 @@
       <c r="H49" s="24"/>
       <c r="J49" s="7"/>
     </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" hidden="1">
       <c r="A50" s="6">
         <v>43559</v>
       </c>
@@ -2194,7 +2193,7 @@
       <c r="H50" s="24"/>
       <c r="J50" s="7"/>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" hidden="1">
       <c r="A51" s="6">
         <v>43559</v>
       </c>
@@ -2218,7 +2217,7 @@
       <c r="H51" s="24"/>
       <c r="J51" s="7"/>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" hidden="1">
       <c r="A52" s="6">
         <v>43559</v>
       </c>
@@ -2242,7 +2241,7 @@
       <c r="H52" s="24"/>
       <c r="J52" s="7"/>
     </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" hidden="1">
       <c r="A53" s="6">
         <v>43559</v>
       </c>
@@ -2266,7 +2265,7 @@
       <c r="H53" s="24"/>
       <c r="J53" s="7"/>
     </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" hidden="1">
       <c r="A54" s="6">
         <v>43559</v>
       </c>
@@ -2290,7 +2289,7 @@
       <c r="H54" s="24"/>
       <c r="J54" s="7"/>
     </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" hidden="1">
       <c r="A55" s="6">
         <v>43559</v>
       </c>
@@ -2314,7 +2313,7 @@
       <c r="H55" s="24"/>
       <c r="J55" s="7"/>
     </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" hidden="1">
       <c r="A56" s="6">
         <v>43559</v>
       </c>
@@ -2341,7 +2340,7 @@
       </c>
       <c r="J56" s="7"/>
     </row>
-    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" hidden="1">
       <c r="A57" s="6">
         <v>43559</v>
       </c>
@@ -2365,7 +2364,7 @@
       <c r="H57" s="24"/>
       <c r="J57" s="7"/>
     </row>
-    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" hidden="1">
       <c r="A58" s="6">
         <v>43559</v>
       </c>
@@ -2389,7 +2388,7 @@
       <c r="H58" s="24"/>
       <c r="J58" s="7"/>
     </row>
-    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" hidden="1">
       <c r="A59" s="6">
         <v>43559</v>
       </c>
@@ -2413,7 +2412,7 @@
       <c r="H59" s="24"/>
       <c r="J59" s="7"/>
     </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" hidden="1">
       <c r="A60" s="6">
         <v>43559</v>
       </c>
@@ -2440,7 +2439,7 @@
       </c>
       <c r="J60" s="7"/>
     </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" hidden="1">
       <c r="A61" s="6">
         <v>43559</v>
       </c>
@@ -2464,7 +2463,7 @@
       <c r="H61" s="24"/>
       <c r="J61" s="7"/>
     </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" hidden="1">
       <c r="A62" s="6">
         <v>43563</v>
       </c>
@@ -2488,7 +2487,7 @@
       <c r="H62" s="24"/>
       <c r="J62" s="7"/>
     </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" hidden="1">
       <c r="A63" s="6">
         <v>43563</v>
       </c>
@@ -2512,7 +2511,7 @@
       <c r="H63" s="24"/>
       <c r="J63" s="7"/>
     </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" hidden="1">
       <c r="A64" s="6">
         <v>43563</v>
       </c>
@@ -2536,7 +2535,7 @@
       <c r="H64" s="24"/>
       <c r="J64" s="7"/>
     </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" hidden="1">
       <c r="A65" s="6">
         <v>43563</v>
       </c>
@@ -2560,7 +2559,7 @@
       <c r="H65" s="24"/>
       <c r="J65" s="7"/>
     </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" hidden="1">
       <c r="A66" s="6">
         <v>43563</v>
       </c>
@@ -2584,7 +2583,7 @@
       <c r="H66" s="24"/>
       <c r="J66" s="8"/>
     </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" hidden="1">
       <c r="A67" s="6">
         <v>43563</v>
       </c>
@@ -2608,7 +2607,7 @@
       <c r="H67" s="24"/>
       <c r="J67" s="7"/>
     </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" hidden="1">
       <c r="A68" s="6">
         <v>43563</v>
       </c>
@@ -2632,7 +2631,7 @@
       <c r="H68" s="24"/>
       <c r="J68" s="7"/>
     </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" hidden="1">
       <c r="A69" s="6">
         <v>43563</v>
       </c>
@@ -2656,7 +2655,7 @@
       <c r="H69" s="24"/>
       <c r="J69" s="7"/>
     </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" hidden="1">
       <c r="A70" s="6">
         <v>43563</v>
       </c>
@@ -2680,7 +2679,7 @@
       <c r="H70" s="24"/>
       <c r="J70" s="7"/>
     </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" hidden="1">
       <c r="A71" s="6">
         <v>43563</v>
       </c>
@@ -2704,7 +2703,7 @@
       <c r="H71" s="24"/>
       <c r="J71" s="7"/>
     </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" hidden="1">
       <c r="A72" s="6">
         <v>43563</v>
       </c>
@@ -2728,7 +2727,7 @@
       <c r="H72" s="24"/>
       <c r="J72" s="7"/>
     </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" hidden="1">
       <c r="A73" s="6">
         <v>43563</v>
       </c>
@@ -2752,7 +2751,7 @@
       <c r="H73" s="24"/>
       <c r="J73" s="7"/>
     </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" hidden="1">
       <c r="A74" s="6">
         <v>43563</v>
       </c>
@@ -2776,7 +2775,7 @@
       <c r="H74" s="24"/>
       <c r="J74" s="7"/>
     </row>
-    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" hidden="1">
       <c r="A75" s="6">
         <v>43563</v>
       </c>
@@ -2800,7 +2799,7 @@
       <c r="H75" s="24"/>
       <c r="J75" s="7"/>
     </row>
-    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" hidden="1">
       <c r="A76" s="6">
         <v>43563</v>
       </c>
@@ -2824,7 +2823,7 @@
       <c r="H76" s="24"/>
       <c r="J76" s="7"/>
     </row>
-    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" hidden="1">
       <c r="A77" s="6">
         <v>43563</v>
       </c>
@@ -2851,7 +2850,7 @@
       </c>
       <c r="J77" s="9"/>
     </row>
-    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" hidden="1">
       <c r="A78" s="6">
         <v>43563</v>
       </c>
@@ -2875,7 +2874,7 @@
       <c r="H78" s="24"/>
       <c r="J78" s="7"/>
     </row>
-    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" hidden="1">
       <c r="A79" s="6">
         <v>43563</v>
       </c>
@@ -2899,7 +2898,7 @@
       <c r="H79" s="24"/>
       <c r="J79" s="7"/>
     </row>
-    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" hidden="1">
       <c r="A80" s="6">
         <v>43563</v>
       </c>
@@ -2923,7 +2922,7 @@
       <c r="H80" s="24"/>
       <c r="J80" s="7"/>
     </row>
-    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" hidden="1">
       <c r="A81" s="6">
         <v>43563</v>
       </c>
@@ -2947,7 +2946,7 @@
       <c r="H81" s="24"/>
       <c r="J81" s="7"/>
     </row>
-    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" hidden="1">
       <c r="A82" s="6">
         <v>43563</v>
       </c>
@@ -2974,7 +2973,7 @@
       </c>
       <c r="J82" s="7"/>
     </row>
-    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" hidden="1">
       <c r="A83" s="6">
         <v>43563</v>
       </c>
@@ -2998,7 +2997,7 @@
       <c r="H83" s="24"/>
       <c r="J83" s="7"/>
     </row>
-    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" hidden="1">
       <c r="A84" s="6">
         <v>43563</v>
       </c>
@@ -3022,7 +3021,7 @@
       <c r="H84" s="24"/>
       <c r="J84" s="7"/>
     </row>
-    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" hidden="1">
       <c r="A85" s="6">
         <v>43563</v>
       </c>
@@ -3046,7 +3045,7 @@
       <c r="H85" s="24"/>
       <c r="J85" s="7"/>
     </row>
-    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" hidden="1">
       <c r="A86" s="6">
         <v>43563</v>
       </c>
@@ -3070,7 +3069,7 @@
       <c r="H86" s="24"/>
       <c r="J86" s="7"/>
     </row>
-    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" hidden="1">
       <c r="A87" s="6">
         <v>43564</v>
       </c>
@@ -3094,7 +3093,7 @@
       <c r="H87" s="24"/>
       <c r="J87" s="7"/>
     </row>
-    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" hidden="1">
       <c r="A88" s="6">
         <v>43564</v>
       </c>
@@ -3118,7 +3117,7 @@
       <c r="H88" s="24"/>
       <c r="J88" s="7"/>
     </row>
-    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" hidden="1">
       <c r="A89" s="6">
         <v>43564</v>
       </c>
@@ -3142,7 +3141,7 @@
       <c r="H89" s="24"/>
       <c r="J89" s="7"/>
     </row>
-    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" hidden="1">
       <c r="A90" s="6">
         <v>43564</v>
       </c>
@@ -3166,7 +3165,7 @@
       <c r="H90" s="24"/>
       <c r="J90" s="7"/>
     </row>
-    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" hidden="1">
       <c r="A91" s="6">
         <v>43564</v>
       </c>
@@ -3190,7 +3189,7 @@
       <c r="H91" s="24"/>
       <c r="J91" s="7"/>
     </row>
-    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" hidden="1">
       <c r="A92" s="6">
         <v>43564</v>
       </c>
@@ -3214,7 +3213,7 @@
       <c r="H92" s="24"/>
       <c r="J92" s="7"/>
     </row>
-    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" hidden="1">
       <c r="A93" s="6">
         <v>43565</v>
       </c>
@@ -3238,7 +3237,7 @@
       <c r="H93" s="24"/>
       <c r="J93" s="7"/>
     </row>
-    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" hidden="1">
       <c r="A94" s="6">
         <v>43565</v>
       </c>
@@ -3262,7 +3261,7 @@
       <c r="H94" s="24"/>
       <c r="J94" s="7"/>
     </row>
-    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" hidden="1">
       <c r="A95" s="6">
         <v>43565</v>
       </c>
@@ -3286,7 +3285,7 @@
       <c r="H95" s="24"/>
       <c r="J95" s="7"/>
     </row>
-    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" hidden="1">
       <c r="A96" s="6">
         <v>43565</v>
       </c>
@@ -3310,7 +3309,7 @@
       <c r="H96" s="24"/>
       <c r="J96" s="7"/>
     </row>
-    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" hidden="1">
       <c r="A97" s="6">
         <v>43565</v>
       </c>
@@ -3333,7 +3332,7 @@
       <c r="G97" s="18"/>
       <c r="H97" s="24"/>
     </row>
-    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" hidden="1">
       <c r="A98" s="6">
         <v>43565</v>
       </c>
@@ -3356,7 +3355,7 @@
       <c r="G98" s="18"/>
       <c r="H98" s="24"/>
     </row>
-    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" hidden="1">
       <c r="A99" s="6">
         <v>43565</v>
       </c>
@@ -3379,7 +3378,7 @@
       <c r="G99" s="18"/>
       <c r="H99" s="24"/>
     </row>
-    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" hidden="1">
       <c r="A100" s="6">
         <v>43566</v>
       </c>
@@ -3402,7 +3401,7 @@
       <c r="G100" s="18"/>
       <c r="H100" s="24"/>
     </row>
-    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" hidden="1">
       <c r="A101" s="6">
         <v>43566</v>
       </c>
@@ -3425,7 +3424,7 @@
       <c r="G101" s="18"/>
       <c r="H101" s="24"/>
     </row>
-    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" hidden="1">
       <c r="A102" s="6">
         <v>43566</v>
       </c>
@@ -3448,7 +3447,7 @@
       <c r="G102" s="18"/>
       <c r="H102" s="24"/>
     </row>
-    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" hidden="1">
       <c r="A103" s="6">
         <v>43566</v>
       </c>
@@ -3471,7 +3470,7 @@
       <c r="G103" s="18"/>
       <c r="H103" s="24"/>
     </row>
-    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" hidden="1">
       <c r="A104" s="6">
         <v>43566</v>
       </c>
@@ -3494,7 +3493,7 @@
       <c r="G104" s="18"/>
       <c r="H104" s="24"/>
     </row>
-    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" hidden="1">
       <c r="A105" s="6">
         <v>43566</v>
       </c>
@@ -3517,7 +3516,7 @@
       <c r="G105" s="18"/>
       <c r="H105" s="24"/>
     </row>
-    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" hidden="1">
       <c r="A106" s="6">
         <v>43566</v>
       </c>
@@ -3540,7 +3539,7 @@
       <c r="G106" s="18"/>
       <c r="H106" s="24"/>
     </row>
-    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" hidden="1">
       <c r="A107" s="6">
         <v>43566</v>
       </c>
@@ -3567,7 +3566,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" hidden="1">
       <c r="A108" s="6">
         <v>43566</v>
       </c>
@@ -3590,7 +3589,7 @@
       <c r="G108" s="18"/>
       <c r="H108" s="24"/>
     </row>
-    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" hidden="1">
       <c r="A109" s="6">
         <v>43566</v>
       </c>
@@ -3613,7 +3612,7 @@
       <c r="G109" s="18"/>
       <c r="H109" s="24"/>
     </row>
-    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" hidden="1">
       <c r="A110" s="6">
         <v>43566</v>
       </c>
@@ -3636,7 +3635,7 @@
       <c r="G110" s="18"/>
       <c r="H110" s="24"/>
     </row>
-    <row r="111" spans="1:9" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" s="16" customFormat="1" hidden="1">
       <c r="A111" s="6">
         <v>43566</v>
       </c>
@@ -3651,7 +3650,7 @@
       <c r="H111" s="25"/>
       <c r="I111" s="15"/>
     </row>
-    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" hidden="1">
       <c r="A112" s="6">
         <v>43566</v>
       </c>
@@ -3673,7 +3672,7 @@
       </c>
       <c r="H112" s="24"/>
     </row>
-    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" hidden="1">
       <c r="A113" s="6">
         <v>43566</v>
       </c>
@@ -3695,7 +3694,7 @@
       </c>
       <c r="H113" s="24"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8">
       <c r="A114" s="6">
         <v>43567</v>
       </c>
@@ -3717,7 +3716,7 @@
       </c>
       <c r="H114" s="24"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8">
       <c r="A115" s="6">
         <v>43567</v>
       </c>
@@ -3739,7 +3738,7 @@
       </c>
       <c r="H115" s="24"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8">
       <c r="A116" s="6">
         <v>43567</v>
       </c>
@@ -3766,7 +3765,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8">
       <c r="A117" s="6">
         <v>43567</v>
       </c>
@@ -3788,7 +3787,7 @@
       </c>
       <c r="H117" s="24"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8">
       <c r="A118" s="6">
         <v>43567</v>
       </c>
@@ -3810,7 +3809,7 @@
       </c>
       <c r="H118" s="24"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8">
       <c r="A119" s="6">
         <v>43567</v>
       </c>
@@ -3837,7 +3836,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8">
       <c r="A120" s="6">
         <v>43567</v>
       </c>
@@ -3859,7 +3858,7 @@
       </c>
       <c r="H120" s="24"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8">
       <c r="A121" s="6">
         <v>43567</v>
       </c>
@@ -3881,7 +3880,7 @@
       </c>
       <c r="H121" s="24"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8">
       <c r="A122" s="6">
         <v>43567</v>
       </c>
@@ -3903,7 +3902,7 @@
       </c>
       <c r="H122" s="24"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8">
       <c r="A123" s="6">
         <v>43567</v>
       </c>
@@ -3925,7 +3924,7 @@
       </c>
       <c r="H123" s="24"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8">
       <c r="A124" s="6">
         <v>43567</v>
       </c>
@@ -3951,7 +3950,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8">
       <c r="A125" s="6">
         <v>43567</v>
       </c>
@@ -3973,7 +3972,7 @@
       </c>
       <c r="H125" s="24"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8">
       <c r="A126" s="6">
         <v>43567</v>
       </c>
@@ -3990,7 +3989,7 @@
         <v>0</v>
       </c>
       <c r="F126" s="24">
-        <f t="shared" ref="F126:F154" si="3">D126*E126</f>
+        <f t="shared" ref="F126:F155" si="3">D126*E126</f>
         <v>0</v>
       </c>
       <c r="G126" s="2" t="s">
@@ -4000,7 +3999,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8">
       <c r="A127" s="6">
         <v>43567</v>
       </c>
@@ -4027,7 +4026,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8">
       <c r="A128" s="6">
         <v>43567</v>
       </c>
@@ -4049,7 +4048,7 @@
       </c>
       <c r="H128" s="24"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8">
       <c r="A129" s="6">
         <v>43567</v>
       </c>
@@ -4071,7 +4070,7 @@
       </c>
       <c r="H129" s="24"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8">
       <c r="A130" s="6">
         <v>43568</v>
       </c>
@@ -4093,7 +4092,7 @@
       </c>
       <c r="H130" s="24"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8">
       <c r="A131" s="6">
         <v>43568</v>
       </c>
@@ -4115,7 +4114,7 @@
       </c>
       <c r="H131" s="24"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8">
       <c r="A132" s="6">
         <v>43568</v>
       </c>
@@ -4137,7 +4136,7 @@
       </c>
       <c r="H132" s="24"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8">
       <c r="A133" s="6">
         <v>43568</v>
       </c>
@@ -4159,7 +4158,7 @@
       </c>
       <c r="H133" s="24"/>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8">
       <c r="A134" s="6">
         <v>43568</v>
       </c>
@@ -4181,7 +4180,7 @@
       </c>
       <c r="H134" s="24"/>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8">
       <c r="A135" s="6">
         <v>43568</v>
       </c>
@@ -4203,7 +4202,7 @@
       </c>
       <c r="H135" s="24"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8">
       <c r="A136" s="6">
         <v>43570</v>
       </c>
@@ -4225,7 +4224,7 @@
       </c>
       <c r="H136" s="24"/>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8">
       <c r="A137" s="6">
         <v>43570</v>
       </c>
@@ -4247,7 +4246,7 @@
       </c>
       <c r="H137" s="24"/>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8">
       <c r="A138" s="6">
         <v>43570</v>
       </c>
@@ -4269,7 +4268,7 @@
       </c>
       <c r="H138" s="24"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8">
       <c r="A139" s="6">
         <v>43570</v>
       </c>
@@ -4291,7 +4290,7 @@
       </c>
       <c r="H139" s="24"/>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8">
       <c r="A140" s="6">
         <v>43570</v>
       </c>
@@ -4313,7 +4312,7 @@
       </c>
       <c r="H140" s="24"/>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8">
       <c r="A141" s="6">
         <v>43570</v>
       </c>
@@ -4335,7 +4334,7 @@
       </c>
       <c r="H141" s="24"/>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8">
       <c r="A142" s="6">
         <v>43570</v>
       </c>
@@ -4357,7 +4356,7 @@
       </c>
       <c r="H142" s="24"/>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8">
       <c r="A143" s="6">
         <v>43571</v>
       </c>
@@ -4379,7 +4378,7 @@
       </c>
       <c r="H143" s="24"/>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8">
       <c r="A144" s="6">
         <v>43571</v>
       </c>
@@ -4401,7 +4400,7 @@
       </c>
       <c r="H144" s="24"/>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8">
       <c r="A145" s="6">
         <v>43571</v>
       </c>
@@ -4423,7 +4422,7 @@
       </c>
       <c r="H145" s="24"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8">
       <c r="A146" s="6">
         <v>43571</v>
       </c>
@@ -4446,7 +4445,7 @@
       <c r="G146" s="12"/>
       <c r="H146" s="24"/>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8">
       <c r="A147" s="6">
         <v>43571</v>
       </c>
@@ -4468,7 +4467,7 @@
       </c>
       <c r="H147" s="24"/>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8">
       <c r="A148" s="6">
         <v>43571</v>
       </c>
@@ -4490,7 +4489,7 @@
       </c>
       <c r="H148" s="24"/>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8">
       <c r="A149" s="6">
         <v>43571</v>
       </c>
@@ -4512,7 +4511,7 @@
       </c>
       <c r="H149" s="24"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8">
       <c r="A150" s="6">
         <v>43571</v>
       </c>
@@ -4539,7 +4538,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8">
       <c r="A151" s="6">
         <v>43572</v>
       </c>
@@ -4561,7 +4560,7 @@
       </c>
       <c r="H151" s="24"/>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8">
       <c r="A152" s="6">
         <v>43572</v>
       </c>
@@ -4588,7 +4587,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8">
       <c r="A153" s="6">
         <v>43572</v>
       </c>
@@ -4610,7 +4609,7 @@
       </c>
       <c r="H153" s="24"/>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8">
       <c r="A154" s="6">
         <v>43572</v>
       </c>
@@ -4631,6 +4630,28 @@
         <v>20</v>
       </c>
       <c r="H154" s="24"/>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155" s="6">
+        <v>43572</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D155" s="2">
+        <v>1</v>
+      </c>
+      <c r="E155" s="12">
+        <v>13</v>
+      </c>
+      <c r="F155" s="24">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="H155" s="24"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I132">

--- a/4月/4月份运费表(4.17).xlsx
+++ b/4月/4月份运费表(4.17).xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="114">
   <si>
     <t>日期</t>
   </si>
@@ -439,6 +439,10 @@
   </si>
   <si>
     <t>许燕莎</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>高洁</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -950,11 +954,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:J155"/>
+  <dimension ref="A1:J156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G170" sqref="G170"/>
+      <selection pane="bottomLeft" activeCell="D159" sqref="D159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3989,7 +3993,7 @@
         <v>0</v>
       </c>
       <c r="F126" s="24">
-        <f t="shared" ref="F126:F155" si="3">D126*E126</f>
+        <f t="shared" ref="F126:F156" si="3">D126*E126</f>
         <v>0</v>
       </c>
       <c r="G126" s="2" t="s">
@@ -4652,6 +4656,28 @@
         <v>13</v>
       </c>
       <c r="H155" s="24"/>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156" s="6">
+        <v>43572</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D156" s="2">
+        <v>6</v>
+      </c>
+      <c r="E156" s="12">
+        <v>7</v>
+      </c>
+      <c r="F156" s="24">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="H156" s="24"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I132">
